--- a/data/new_zh_pork_1126.xlsx
+++ b/data/new_zh_pork_1126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>prompt</t>
   </si>
@@ -47,6 +47,54 @@
   </si>
   <si>
     <t>豬梅花肉</t>
+  </si>
+  <si>
+    <t>豬肋排</t>
+  </si>
+  <si>
+    <t>豬絞肉、罐頭花瓜、蒜末、高湯</t>
+  </si>
+  <si>
+    <t>白飯、豬肉絲、香菇、蝦米、紅蔥頭片、油蔥酥、高湯</t>
+  </si>
+  <si>
+    <t>豬梅花肉片、韓式泡菜、洋蔥</t>
+  </si>
+  <si>
+    <t>油麵、韭菜、洋蔥、紅蘿蔔、豬肉絲、油蔥酥、蝦米</t>
+  </si>
+  <si>
+    <t>豬絞肉、洋蔥丁、蒜末、辣椒末、九層塔、沙拉油</t>
+  </si>
+  <si>
+    <t>豬里肌肉、青蔥、薑、中筋麵粉、泡打粉、太白粉、沙拉油、水</t>
+  </si>
+  <si>
+    <t>豬腳、薑片、蔥段、花椒粒、白胡椒粒、蔥末、薑絲、水、醬油、糖、開水、辣椒末、蒜末</t>
+  </si>
+  <si>
+    <t>豬小排、蔥、薑、青江菜、紅麴米</t>
+  </si>
+  <si>
+    <t>瘦肉、肥肉、荸薺、薑末、蔥末、雞蛋、大白菜、蔥、薑</t>
+  </si>
+  <si>
+    <t>豬肉絲、紅辣椒、青蔥、薑</t>
+  </si>
+  <si>
+    <t>帶皮梅花肉、蔥段、辣椒段、蒜頭、可樂、水</t>
+  </si>
+  <si>
+    <t>大里肌、百里香、蒜頭碎、白酒、黑胡椒粉、糖、鹽、麵粉、奶油</t>
+  </si>
+  <si>
+    <t>豬腳、青蔥、薑片、沙拉油、紅辣椒、蒜仁、水、滷包、生花生、八角</t>
+  </si>
+  <si>
+    <t>里肌肉、青椒、紅甜椒、黃甜椒、熱白飯、熟白芝麻</t>
+  </si>
+  <si>
+    <t>梅花肉、蜂蜜</t>
   </si>
   <si>
     <t>洋蔥煎肉餅
@@ -98,6 +146,104 @@
 作法：1.所有刷料以小火煮勻備用。2.將梅花肉切成每塊5公分寬的長條狀，與所有醃料拌勻，冷藏2小時至入味備用。3.將烤箱預熱到220℃～250℃，再將作法2的梅花肉放入烤箱，烤至兩面皆熟取出，將作法1的刷料均勻刷在梅花肉上，放回烤箱內續烤3～5分鐘，即可取出掛起，待涼切片食用。</t>
   </si>
   <si>
+    <t>糖醋小排
+食材：豬肋排
+調味料：醬油，砂糖，鎮江醋
+作法：1.豬肋排切成2公分長的塊狀，放入熱油裡以中火炸至呈金黃色時撈起。2.炸後之肋排加入醃料配料與水燜煮，待醬汁快乾時再加入鎮江醋，至醬汁完全收乾後即可起鍋。</t>
+  </si>
+  <si>
+    <t>瓜仔肉
+食材：豬絞肉，罐頭花瓜，蒜末，高湯
+調味料：醬油，米酒，冰糖，雞粉，胡椒粉
+作法：1.罐頭花瓜取出花瓜切成丁，湯汁保留備用。2.熱一鍋，放入兩大匙油，加入蒜末爆香後，加入豬絞肉炒散。3.再加入所有調味料炒至入味後，盛入砂鍋內。4.於作法3的砂鍋內倒入高湯、作法1的花瓜湯汁煮至沸騰，轉小火再煮15分鐘。5.最後加入作法1的花瓜丁以小火續煮15分鐘即可。</t>
+  </si>
+  <si>
+    <t>台式鹹粥
+食材：白飯，豬肉絲，香菇，蝦米，紅蔥頭片，油蔥酥，高湯
+調味料：鹽，鮮雞粉，細砂糖，料理米酒
+醃料：鹽，太白粉，料理米酒
+作法：1.豬肉絲洗淨瀝乾水份，放入大碗中，加入所有醃料拌勻醃約1分鐘，再放入熱油鍋快炒至變色，立即盛出瀝乾油備用。2.香菇洗淨泡軟後切絲；蝦米洗淨泡入加了少許料理米酒的水中浸泡至軟，撈出瀝乾水份；備用。3.熱鍋倒入少許油燒熱，放入紅蔥頭片小火爆香，再放入作法2炒出香氣，加入作法1拌炒均勻，倒入高湯改中火煮至滾開，再加入白飯改小火拌煮至略濃稠，最後以所有調味料調味，再撒上油蔥酥即可。</t>
+  </si>
+  <si>
+    <t>韓式泡菜燒肉
+食材：豬梅花肉片，韓式泡菜，洋蔥
+調味料：醬油，糖
+作法：1.洋蔥切絲；泡菜切小塊備用。2.取一鍋，倒入少許沙拉油燒熱，放入洋蔥炒香。3.再放入韓式泡菜，炒香後放入梅花肉片拌炒至肉色變白。4.續加入醬油、糖，炒至乾香即可。</t>
+  </si>
+  <si>
+    <t>台式炒麵
+食材：油麵，韭菜，洋蔥，紅蘿蔔，豬肉絲，油蔥酥，蝦米
+調味料：醬油，雞粉，白胡椒粉，黑醋，水，糖
+作法：1.韭菜洗淨切段；洋蔥、紅蘿蔔洗淨切絲備用。2.取鍋，加入適量油燒熱，放入油蔥酥、蝦米、洋蔥絲和紅蘿蔔絲炒香。3.續加入豬肉絲、油麵和調味料拌炒均勻，加鍋蓋燜煮至水份略收乾即可盛盤。4.加入豬肉絲和調味料燜煮至水略收乾，再放入韭菜段略拌炒均勻即可。</t>
+  </si>
+  <si>
+    <t>打拋豬肉
+食材：豬絞肉，洋蔥丁，蒜末，辣椒末，九層塔，沙拉油
+調味料：魚露，泰國甜醬油，糖
+醃料：醬油，米酒，胡椒粉，香油，太白粉
+作法：1.豬絞肉加入所有醃料醃漬約10分鐘，備用。2.九層塔摘去老枝、洗淨，備用。3.鍋燒熱加入沙拉油，放入作法1的豬絞肉炒至肉色變白，再加入洋蔥末、蒜末、辣椒末炒約3分鐘，續加入所有調味料再炒1分鐘，最後加入作法2的九層塔炒勻即可。</t>
+  </si>
+  <si>
+    <t>糖醋里肌
+食材：豬里肌肉，青蔥，薑，中筋麵粉，泡打粉，太白粉，沙拉油，水
+調味料：蕃茄醬，白醋，細砂糖，米酒
+作法：1.豬里肌肉洗淨切條；青蔥洗淨切小段；薑洗淨去皮切片；前述材料放入大碗中，拌勻醃約5分鐘備用。2.麵糊材料放入大碗中充分攪拌均勻備用。3.鍋中倒入適量油燒熱，分別取作法1醃好的豬里肌肉條均勻沾裹作法2麵糊，放入鍋中以中小火油炸至呈金黃色，撈出瀝乾油分備用。4.將所有調味料放入鍋中以中小火煮勻，放入作法3豬里肌肉條拌炒至醬汁略收乾即可。</t>
+  </si>
+  <si>
+    <t>清燉豬腳
+食材：豬腳，薑片，蔥段，花椒粒，白胡椒粒，蔥末，薑絲，水，醬油，糖，開水，辣椒末，蒜末
+調味料：米酒，鹽
+作法：1.把豬腳去毛後洗淨，放入滾水中汆燙約5分鐘，撈出泡冰水至涼，備用。2.取一砂鍋，把作法1的豬腳、水、米酒、薑片、蔥段、花椒粒、白胡椒粒放入一起煮至滾沸，轉小火煮約1小時又10分鐘，關火後燜約10分鐘。3.將作法2的豬腳取出，去骨、切小塊，放入已加入少許鹽與作法2湯汁的碗中，最後放上蔥末與薑絲即可。4.把沾醬材料全部混合均勻，作法3的豬腳肉可搭配食用。</t>
+  </si>
+  <si>
+    <t>無錫排骨
+食材：豬小排，蔥，薑，青江菜，紅麴米
+調味料：A.醬油，細糖，紹興酒，肉桂，八角，水，B.太白粉水，香油
+作法：1.豬小排剁成長約8公分的小塊，用開水汆燙後洗淨瀝乾備用。2.青江菜洗淨後對半切。蔥切小段，薑拍鬆備用。3.熱鍋下沙拉油，小火爆香作法2的蔥段和薑。加入所有調味料A、紅麴米和作法1的豬小排。4.作法3煮滾後關小火蓋上鍋蓋，小火煮約30分鐘至水收乾。5.將作法2的青江菜燙熟後舖在盤底，並將作法4的豬小排塊排放至盤中。6.將作法4鍋中剩餘的湯汁煮開，用太白粉水勾芡，灑上香油後淋至作法5上即可。</t>
+  </si>
+  <si>
+    <t>紅燒獅子頭
+食材：瘦肉，肥肉，荸薺，薑末，蔥末，雞蛋，大白菜，蔥，薑
+調味料：A.鹽，水，雞精粉，細砂糖，醬油，料理酒，白胡椒粉，香油，B.水，醬油，細砂糖
+作法：1.將荸薺拍碎，切成粒狀備用，大白菜切成塊狀同樣洗淨備用。2.將瘦肉剁成肉末，肥豬肉切成粒狀備用3.將作法2剁好的肉末放入鋼盆中，加入鹽以同一方向攪拌後，將肉拿起往盆中摔，重覆數次直至肉有黏性為止。4.在作法3摔好的肉中加入雞精粉、細砂糖及雞蛋，拌勻後將100cc的水分2次加入，一面加水一面攪拌至水分被肉吸收。5.於作法4拌好的肉中加入荸薺、薑末、蔥末及其他調味料A，拌勻後將肉餡分成數等份，用手掌捏成圓球形即成獅子頭。6.熱鍋下約100㏄沙拉油，將作法5中作好的獅子頭下鍋，以中火煎至表面成形且略焦黃即可。7.取一燉鍋，將材料B的蔥、薑拍破後放入鍋中墊底，再依序放入煎好的獅子頭及調味料B，待燒滾後，轉小火煮約30分鐘，再加入作法1中處理好的大白菜，再煮約15分鐘至大白菜軟爛後即完成。</t>
+  </si>
+  <si>
+    <t>京醬肉絲
+食材：豬肉絲，紅辣椒，青蔥，薑
+調味料：甜麵醬，米酒，細砂糖，鮮雞粉，水
+醃料：鹽，太白粉，香油
+作法：1.豬肉絲放入大碗中，加入所有醃料拌勻，並醃約5分鐘備用。2.紅辣椒洗淨，去蒂及籽後切絲；青蔥洗淨切絲；薑洗淨，去皮切絲；一起泡水並混合均勻，撈出瀝乾水份，排入盤中備用。3.鍋中倒入適量油燒熱，放入作法1豬肉絲以中火炒至完全熟透，加入所有調味料拌炒均勻，盛出均勻淋在作法2盤中即可。</t>
+  </si>
+  <si>
+    <t>可樂滷肉
+食材：帶皮梅花肉，蔥段，辣椒段，蒜頭，可樂，水
+調味料：鹽，醬油，米酒，白胡椒粉
+作法：1.帶皮梅花肉洗淨切塊備用。2.熱鍋，倒入2大匙油爆香，放入蔥段、辣椒段及蒜頭爆香。3.放入梅花肉塊炒至微焦，加入所有調味料炒香。4.倒入可樂、水煮至沸騰，再轉小火滷約40分鐘即可。</t>
+  </si>
+  <si>
+    <t>里肌豬排
+食材：大里肌，百里香，蒜頭碎，白酒，黑胡椒粉，糖，鹽，麵粉，奶油
+作法：1.里肌修邊去除油筋，切成蝴蝶片略拍打備用。2.白酒、百里香、蒜頭碎、黑胡椒粉、糖、鹽均勻灑在作法1的豬排上醃10分鐘後，沾上麵粉備用。3.奶油入鍋以中火燒至八分熱後，轉成中小火將作法2的豬排入鍋煎。4.每面煎約2分鐘轉小火緒煎2分鐘，表皮呈現金黃色熟透即可。</t>
+  </si>
+  <si>
+    <t>滷豬腳
+食材：豬腳，青蔥，薑片，沙拉油，紅辣椒，蒜仁，水，滷包，生花生，八角
+調味料：米酒，醬油，砂糖，香菇味精
+作法：1.將豬腳洗淨各切成4段放入滾水中燙至肉變色後撈起冷卻後刮除皮毛並洗淨瀝乾，青蔥洗淨切成段狀；再把豬腳用適量蔥段、薑、米酒和120㏄的醬油醃漬約20～30分鐘後備用。2.熱鍋，倒入沙拉油，將步驟1的豬腳放入後轉大火，炸至豬腳上色後即可撈起。3.將紅辣椒洗淨切成段狀，蒜仁洗淨，再把蔥段、紅辣椒段、蒜仁放入步驟2的鍋中炸至金黃色即可撈起備用。4.另熱鍋，加入少許沙拉油，並將醬油及砂糖倒入鍋中拌炒至糖溶化起泡後，再倒入水煮至滾沸。5.在作法4中放入滷包煮至滷汁釋出香氣。6.將作法2的豬腳倒入作法6的鍋中一起拌煮約2～3分鐘後，再加入香菇味精，並將作法3的材料放入鍋同煮。7.將生花生和八角放入作法7中一起拌煮至沸騰後，倒入事先準備的砂鍋中，再以小火燜煮約40～70分鐘或外皮Q軟入味即可。</t>
+  </si>
+  <si>
+    <t>照燒豬肉蓋飯
+食材：里肌肉，青椒，紅甜椒，黃甜椒，熱白飯，熟白芝麻
+調味料：醬油，糖，米酒
+作法：1.里肌肉切片；青椒、紅甜椒和黃甜椒洗淨切小塊，備用。2.熱鍋，倒適量油，放入青椒、紅甜椒和黃甜椒略炒，盛入盤中備用。3.原鍋放入適量油，放入里肌肉片炒至變色，放入調味料充份拌炒入味。4.將作法2的青椒和甜椒鋪在熱白飯上，在放上作法3的里肌肉片，撒上少許熟白芝麻即可食用。</t>
+  </si>
+  <si>
+    <t>蜜汁叉燒
+食材：梅花肉，蜂蜜
+調味料：醬油，紅腐乳，細糖，五香粉，豆瓣醬
+作法：1.梅花肉切成厚約1公分的長肉條。2.將所有調味料拌勻成醃醬。將作法1的梅花肉條加入醬料中，醃約2小時。3.將梅肉平鋪於平底鍋上，蓋上鍋蓋。開中火煎烤約5分鐘後翻面再煎。4.煎至肉熟(切開看)，打開鍋蓋間至水份收乾表面微焦香取出。刷上蜂蜜即可。</t>
+  </si>
+  <si>
     <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2665</t>
   </si>
   <si>
@@ -120,6 +266,54 @@
   </si>
   <si>
     <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-199</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2677</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-0957</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2009</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2506</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1985</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2876</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1601</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1389</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2549</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-711</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1573</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-1881</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-777</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-522</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2573</t>
+  </si>
+  <si>
+    <t>https://www.ytower.com.tw/recipe/iframe-recipe.asp?seq=A02-2663</t>
   </si>
 </sst>
 </file>
@@ -490,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,10 +706,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -523,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -534,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -545,10 +739,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -556,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -567,10 +761,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -578,10 +772,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -589,10 +783,186 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -605,6 +975,22 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
